--- a/week/51w/VOC 51w 원본_3점.xlsx
+++ b/week/51w/VOC 51w 원본_3점.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:K47"/>
+  <dimension ref="A1:K43"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -859,71 +859,18 @@
     <row r="8">
       <c r="A8" t="inlineStr">
         <is>
-          <t>lena****</t>
+          <t>how9***</t>
         </is>
       </c>
       <c r="B8" t="n">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="C8" t="inlineStr">
         <is>
-          <t>2024-12-22</t>
+          <t>2024-12-15</t>
         </is>
       </c>
       <c r="D8" t="inlineStr">
-        <is>
-          <t>우선 다른 행거 사보고 여기꺼도 구매 했는데 다른점은 다른행거 업체는 대충 설명해도 하나라도 더 팔려고하는지 도면을 엄청 신경써서 그리고 구매링크 공유 및 최종 컨펌까지 꼼꼼하게 해주면서 주문 실수가 없도록 섬세하게 챙겨줬는데 여기는 그런 서비스가 부족하죠 주문 실수로 넣어도 필요없는거 구매 했는데 다 본인 책임이에요,,</t>
-        </is>
-      </c>
-      <c r="E8" t="n">
-        <v>180</v>
-      </c>
-      <c r="F8" t="inlineStr">
-        <is>
-          <t>추가상품명: 홈던트하우스 C후크 / 추가상품값: 백색 4개</t>
-        </is>
-      </c>
-      <c r="G8" t="inlineStr">
-        <is>
-          <t>https://brand.naver.com/speedrack/products/4930705433</t>
-        </is>
-      </c>
-      <c r="H8" t="inlineStr">
-        <is>
-          <t>홈던트하우스</t>
-        </is>
-      </c>
-      <c r="I8" t="inlineStr">
-        <is>
-          <t>스마트스토어</t>
-        </is>
-      </c>
-      <c r="J8" t="inlineStr">
-        <is>
-          <t>스피드랙 온라인지점</t>
-        </is>
-      </c>
-      <c r="K8" t="inlineStr">
-        <is>
-          <t>선반 추가부품(추가3)</t>
-        </is>
-      </c>
-    </row>
-    <row r="9">
-      <c r="A9" t="inlineStr">
-        <is>
-          <t>how9***</t>
-        </is>
-      </c>
-      <c r="B9" t="n">
-        <v>1</v>
-      </c>
-      <c r="C9" t="inlineStr">
-        <is>
-          <t>2024-12-15</t>
-        </is>
-      </c>
-      <c r="D9" t="inlineStr">
         <is>
           <t>철이 흔들흔들 흔들립니다.
 춤을 춥니다.
@@ -933,77 +880,130 @@
 커튼봉 절대 구매 하지 마세요 동일 물품 다이소에서 2천원에 판매합니다.</t>
         </is>
       </c>
-      <c r="E9" t="n">
+      <c r="E8" t="n">
         <v>151</v>
       </c>
-      <c r="F9" t="inlineStr">
+      <c r="F8" t="inlineStr">
         <is>
           <t>가로(폭)x세로(깊이)(mm): 1200x500(mm) / 높이(mm): 2100(mm) / 단수 / 행거봉: 선반3단(3개) / 행거봉 1개</t>
         </is>
       </c>
-      <c r="G9" t="inlineStr">
+      <c r="G8" t="inlineStr">
         <is>
           <t>https://smartstore.naver.com/firsteco/products/7642958603</t>
         </is>
       </c>
-      <c r="H9" t="inlineStr">
+      <c r="H8" t="inlineStr">
         <is>
           <t>홈던트하우스</t>
         </is>
       </c>
-      <c r="I9" t="inlineStr">
-        <is>
-          <t>스마트스토어</t>
-        </is>
-      </c>
-      <c r="J9" t="inlineStr">
+      <c r="I8" t="inlineStr">
+        <is>
+          <t>스마트스토어</t>
+        </is>
+      </c>
+      <c r="J8" t="inlineStr">
         <is>
           <t>퍼스트에코(추가5)</t>
         </is>
       </c>
-      <c r="K9" t="inlineStr">
+      <c r="K8" t="inlineStr">
         <is>
           <t xml:space="preserve">행거 </t>
         </is>
       </c>
     </row>
-    <row r="10">
-      <c r="A10" t="inlineStr">
+    <row r="9">
+      <c r="A9" t="inlineStr">
         <is>
           <t>cros******</t>
         </is>
       </c>
-      <c r="B10" t="n">
-        <v>3</v>
-      </c>
-      <c r="C10" t="inlineStr">
+      <c r="B9" t="n">
+        <v>3</v>
+      </c>
+      <c r="C9" t="inlineStr">
         <is>
           <t>2024-12-16</t>
         </is>
       </c>
-      <c r="D10" t="inlineStr">
+      <c r="D9" t="inlineStr">
         <is>
           <t>퀄리티가 나쁘진 않습니다.
 다만 브라켓을 체결하는 과정에서 가로 보강대의 홈이 좀 덜나와 있는 것들이 있어서 조립하는데 애를 좀 먹었네요.
 그리고 동봉되는 고무망치는 체급이 좀 많이 낮아서 별도로 큰 고무망치를 쓰시는 편이 좋습니다.</t>
         </is>
       </c>
+      <c r="E9" t="n">
+        <v>132</v>
+      </c>
+      <c r="F9" t="inlineStr">
+        <is>
+          <t>가로X깊이 (6면코팅합판+앵글): 가로900 X 깊이600 / 높이 (mm /일체형기둥): 높이 2100 / 선반단수 (칸수): 3단선반 (2칸)</t>
+        </is>
+      </c>
+      <c r="G9" t="inlineStr">
+        <is>
+          <t>https://smartstore.naver.com/anglestudio/products/4763594399</t>
+        </is>
+      </c>
+      <c r="H9" t="inlineStr">
+        <is>
+          <t>피피랙</t>
+        </is>
+      </c>
+      <c r="I9" t="inlineStr">
+        <is>
+          <t>스마트스토어</t>
+        </is>
+      </c>
+      <c r="J9" t="inlineStr">
+        <is>
+          <t>조립식앵글스튜디오</t>
+        </is>
+      </c>
+      <c r="K9" t="inlineStr">
+        <is>
+          <t>선반</t>
+        </is>
+      </c>
+    </row>
+    <row r="10">
+      <c r="A10" t="inlineStr">
+        <is>
+          <t>l2****</t>
+        </is>
+      </c>
+      <c r="B10" t="n">
+        <v>3</v>
+      </c>
+      <c r="C10" t="inlineStr">
+        <is>
+          <t>2024-12-21</t>
+        </is>
+      </c>
+      <c r="D10" t="inlineStr">
+        <is>
+          <t>다른것하고 같이 주문했는데 ㅡㅡa 안들어 있어서 순간 당황했지만.. 1:1문의 보내니 바로 처리해주셔서.. 받아서 설치 했네요 . 필요가 있을까 없을까 했는데.. 있는게 나을 것 같아서.. 사이즈 정확하고 설치도 쉽네요</t>
+        </is>
+      </c>
       <c r="E10" t="n">
-        <v>132</v>
+        <v>122</v>
       </c>
       <c r="F10" t="inlineStr">
         <is>
-          <t>가로X깊이 (6면코팅합판+앵글): 가로900 X 깊이600 / 높이 (mm /일체형기둥): 높이 2100 / 선반단수 (칸수): 3단선반 (2칸)</t>
+          <t>추가상품명: 홈던트하우스 레일디바이더 세트 / 추가상품값: 400 (2개)</t>
         </is>
       </c>
       <c r="G10" t="inlineStr">
         <is>
-          <t>https://smartstore.naver.com/anglestudio/products/4763594399</t>
+          <t>https://brand.naver.com/speedrack/products/4930705433</t>
         </is>
       </c>
       <c r="H10" t="inlineStr">
         <is>
-          <t>피피랙</t>
+          <t>홈던트하우스</t>
         </is>
       </c>
       <c r="I10" t="inlineStr">
@@ -1013,114 +1013,114 @@
       </c>
       <c r="J10" t="inlineStr">
         <is>
-          <t>조립식앵글스튜디오</t>
+          <t>스피드랙 온라인지점</t>
         </is>
       </c>
       <c r="K10" t="inlineStr">
         <is>
-          <t>선반</t>
+          <t>선반 추가부품(추가3)</t>
         </is>
       </c>
     </row>
     <row r="11">
       <c r="A11" t="inlineStr">
         <is>
-          <t>l2****</t>
+          <t>네이버 페이 구매자</t>
         </is>
       </c>
       <c r="B11" t="n">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="C11" t="inlineStr">
         <is>
-          <t>2024-12-21</t>
+          <t>2024-12-18</t>
         </is>
       </c>
       <c r="D11" t="inlineStr">
         <is>
-          <t>다른것하고 같이 주문했는데 ㅡㅡa 안들어 있어서 순간 당황했지만.. 1:1문의 보내니 바로 처리해주셔서.. 받아서 설치 했네요 . 필요가 있을까 없을까 했는데.. 있는게 나을 것 같아서.. 사이즈 정확하고 설치도 쉽네요</t>
+          <t>예전부터 쓰던거라 사이즈만 줄이려고 어쩔수없이 샀지만, 다른 각종 부품에 대한 문의를 하면 매크로인가 할 정도로 불친절한 응대에 감탄했습니다.
+(2024-12-17 10:29:40 에 등록된 네이버 페이 구매평)</t>
         </is>
       </c>
       <c r="E11" t="n">
-        <v>122</v>
+        <v>119</v>
       </c>
       <c r="F11" t="inlineStr">
         <is>
-          <t>추가상품명: 홈던트하우스 레일디바이더 세트 / 추가상품값: 400 (2개)</t>
+          <t>브랜드 공용 부품 합판추가(9T, 12T) 백색/우드 양면코팅</t>
         </is>
       </c>
       <c r="G11" t="inlineStr">
         <is>
-          <t>https://brand.naver.com/speedrack/products/4930705433</t>
+          <t>https://speedrack.co.kr/product/detailSimulator.html?product_no=113</t>
         </is>
       </c>
       <c r="H11" t="inlineStr">
         <is>
-          <t>홈던트하우스</t>
+          <t>스피드랙</t>
         </is>
       </c>
       <c r="I11" t="inlineStr">
         <is>
-          <t>스마트스토어</t>
+          <t>자사몰</t>
         </is>
       </c>
       <c r="J11" t="inlineStr">
         <is>
-          <t>스피드랙 온라인지점</t>
+          <t>스피드랙 공식몰</t>
         </is>
       </c>
       <c r="K11" t="inlineStr">
         <is>
-          <t>선반 추가부품(추가3)</t>
+          <t>선반(추가부품)</t>
         </is>
       </c>
     </row>
     <row r="12">
       <c r="A12" t="inlineStr">
         <is>
-          <t>네이버 페이 구매자</t>
+          <t>l2****</t>
         </is>
       </c>
       <c r="B12" t="n">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="C12" t="inlineStr">
         <is>
-          <t>2024-12-18</t>
+          <t>2024-12-21</t>
         </is>
       </c>
       <c r="D12" t="inlineStr">
         <is>
-          <t>예전부터 쓰던거라 사이즈만 줄이려고 어쩔수없이 샀지만, 다른 각종 부품에 대한 문의를 하면 매크로인가 할 정도로 불친절한 응대에 감탄했습니다.
-(2024-12-17 10:29:40 에 등록된 네이버 페이 구매평)</t>
+          <t>배송에 문제가 있어서 .. 그래도 바로 보내주셔서 받았네요.. 다른 사람들이 올린 문의 글도 보니 많이 빼먹고 보내시는 듯.. 주문한 내역 확인 잘 해서 보내시면 좋을꺼 같네요</t>
         </is>
       </c>
       <c r="E12" t="n">
-        <v>119</v>
+        <v>98</v>
       </c>
       <c r="F12" t="inlineStr">
         <is>
-          <t>브랜드 공용 부품 합판추가(9T, 12T) 백색/우드 양면코팅</t>
+          <t>제품유형: L형플레이트 세트(단독구매) / 규격: 단일규격 / 색상: 화이트</t>
         </is>
       </c>
       <c r="G12" t="inlineStr">
         <is>
-          <t>https://speedrack.co.kr/product/detailSimulator.html?product_no=113</t>
+          <t>https://brand.naver.com/speedrack/products/7763968509</t>
         </is>
       </c>
       <c r="H12" t="inlineStr">
         <is>
-          <t>스피드랙</t>
+          <t>홈던트하우스</t>
         </is>
       </c>
       <c r="I12" t="inlineStr">
         <is>
-          <t>자사몰</t>
+          <t>스마트스토어</t>
         </is>
       </c>
       <c r="J12" t="inlineStr">
         <is>
-          <t>스피드랙 공식몰</t>
+          <t>스피드랙 온라인지점</t>
         </is>
       </c>
       <c r="K12" t="inlineStr">
@@ -1132,7 +1132,7 @@
     <row r="13">
       <c r="A13" t="inlineStr">
         <is>
-          <t>l2****</t>
+          <t>네이버 페이 구매자</t>
         </is>
       </c>
       <c r="B13" t="n">
@@ -1140,25 +1140,26 @@
       </c>
       <c r="C13" t="inlineStr">
         <is>
-          <t>2024-12-21</t>
+          <t>2024-12-20</t>
         </is>
       </c>
       <c r="D13" t="inlineStr">
         <is>
-          <t>배송에 문제가 있어서 .. 그래도 바로 보내주셔서 받았네요.. 다른 사람들이 올린 문의 글도 보니 많이 빼먹고 보내시는 듯.. 주문한 내역 확인 잘 해서 보내시면 좋을꺼 같네요</t>
+          <t>조립하는데 잠시 약간의 소음은 발생했지만 배송도 빠르고 원하는사이즈로 설치가능하여 좋아요:)
+(2024-12-19 06:34:40 에 등록된 네이버 페이 구매평)</t>
         </is>
       </c>
       <c r="E13" t="n">
-        <v>98</v>
+        <v>95</v>
       </c>
       <c r="F13" t="inlineStr">
         <is>
-          <t>제품유형: L형플레이트 세트(단독구매) / 규격: 단일규격 / 색상: 화이트</t>
+          <t>홈던트하우스 가정용 조립식 수납선반 - 12T 양면코팅합판</t>
         </is>
       </c>
       <c r="G13" t="inlineStr">
         <is>
-          <t>https://brand.naver.com/speedrack/products/7763968509</t>
+          <t>https://speedrack.co.kr/product/detailSimulator.html?product_no=145</t>
         </is>
       </c>
       <c r="H13" t="inlineStr">
@@ -1168,24 +1169,24 @@
       </c>
       <c r="I13" t="inlineStr">
         <is>
-          <t>스마트스토어</t>
+          <t>자사몰</t>
         </is>
       </c>
       <c r="J13" t="inlineStr">
         <is>
-          <t>스피드랙 온라인지점</t>
+          <t>스피드랙 공식몰</t>
         </is>
       </c>
       <c r="K13" t="inlineStr">
         <is>
-          <t>선반(추가부품)</t>
+          <t>선반</t>
         </is>
       </c>
     </row>
     <row r="14">
       <c r="A14" t="inlineStr">
         <is>
-          <t>네이버 페이 구매자</t>
+          <t>full********</t>
         </is>
       </c>
       <c r="B14" t="n">
@@ -1193,26 +1194,25 @@
       </c>
       <c r="C14" t="inlineStr">
         <is>
-          <t>2024-12-20</t>
+          <t>2024-12-17</t>
         </is>
       </c>
       <c r="D14" t="inlineStr">
         <is>
-          <t>조립하는데 잠시 약간의 소음은 발생했지만 배송도 빠르고 원하는사이즈로 설치가능하여 좋아요:)
-(2024-12-19 06:34:40 에 등록된 네이버 페이 구매평)</t>
+          <t>3일 전에 주문하고 설치해본 뒤, 만족해서 추가로 구입했습니다. 특히, 옷 길이에 맞게 높이 조절이 가능해서 좋습니다.</t>
         </is>
       </c>
       <c r="E14" t="n">
-        <v>95</v>
+        <v>66</v>
       </c>
       <c r="F14" t="inlineStr">
         <is>
-          <t>홈던트하우스 가정용 조립식 수납선반 - 12T 양면코팅합판</t>
+          <t>가로(폭)x세로(깊이)(mm): 900x500(mm) / 높이(mm): 2100(mm) / 단수 / 행거봉: 3단 / 2행거</t>
         </is>
       </c>
       <c r="G14" t="inlineStr">
         <is>
-          <t>https://speedrack.co.kr/product/detailSimulator.html?product_no=145</t>
+          <t>https://smartstore.naver.com/speedrackstore/products/8693699113</t>
         </is>
       </c>
       <c r="H14" t="inlineStr">
@@ -1222,24 +1222,24 @@
       </c>
       <c r="I14" t="inlineStr">
         <is>
-          <t>자사몰</t>
+          <t>스마트스토어</t>
         </is>
       </c>
       <c r="J14" t="inlineStr">
         <is>
-          <t>스피드랙 공식몰</t>
+          <t>랙홈(추가)</t>
         </is>
       </c>
       <c r="K14" t="inlineStr">
         <is>
-          <t>선반</t>
+          <t xml:space="preserve">행거 </t>
         </is>
       </c>
     </row>
     <row r="15">
       <c r="A15" t="inlineStr">
         <is>
-          <t>full********</t>
+          <t>pw****</t>
         </is>
       </c>
       <c r="B15" t="n">
@@ -1247,30 +1247,31 @@
       </c>
       <c r="C15" t="inlineStr">
         <is>
-          <t>2024-12-17</t>
+          <t>2024-12-19</t>
         </is>
       </c>
       <c r="D15" t="inlineStr">
         <is>
-          <t>3일 전에 주문하고 설치해본 뒤, 만족해서 추가로 구입했습니다. 특히, 옷 길이에 맞게 높이 조절이 가능해서 좋습니다.</t>
+          <t>배송은 빨랐는데 조립하는게 힘들어요
+구멍도 작고 선반도 너무 딱 맞아서 끼우기 힘들었어요</t>
         </is>
       </c>
       <c r="E15" t="n">
-        <v>66</v>
+        <v>49</v>
       </c>
       <c r="F15" t="inlineStr">
         <is>
-          <t>가로(폭)x세로(깊이)(mm): 900x500(mm) / 높이(mm): 2100(mm) / 단수 / 행거봉: 3단 / 2행거</t>
+          <t>선반: 가로600 X 깊이300 / 높이: 900 / 단수: 3단</t>
         </is>
       </c>
       <c r="G15" t="inlineStr">
         <is>
-          <t>https://smartstore.naver.com/speedrackstore/products/8693699113</t>
+          <t>https://smartstore.naver.com/soonavi/products/4737049595</t>
         </is>
       </c>
       <c r="H15" t="inlineStr">
         <is>
-          <t>홈던트하우스</t>
+          <t>피피랙</t>
         </is>
       </c>
       <c r="I15" t="inlineStr">
@@ -1280,50 +1281,50 @@
       </c>
       <c r="J15" t="inlineStr">
         <is>
-          <t>랙홈(추가)</t>
+          <t>수나비</t>
         </is>
       </c>
       <c r="K15" t="inlineStr">
         <is>
-          <t xml:space="preserve">행거 </t>
+          <t>선반</t>
         </is>
       </c>
     </row>
     <row r="16">
       <c r="A16" t="inlineStr">
         <is>
-          <t>ui****</t>
+          <t>dhsw********</t>
         </is>
       </c>
       <c r="B16" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="C16" t="inlineStr">
         <is>
-          <t>2024-12-22</t>
+          <t>2024-12-19</t>
         </is>
       </c>
       <c r="D16" t="inlineStr">
         <is>
-          <t>몇년전 사용해보고 만족해서 재구입인데 상판이 아예달라졌고 엄청 얇아졌네요 조립하다 떨어트리니 바로 구멍뚤렸네요</t>
+          <t>조립하는건 너무 손쉽게 할수있었으나 가로 세로 넓이 길이 문제로인하여 조금 힘들었음.</t>
         </is>
       </c>
       <c r="E16" t="n">
-        <v>61</v>
+        <v>47</v>
       </c>
       <c r="F16" t="inlineStr">
         <is>
-          <t>가로x폭(mm): 1000 x 400 / 높이(mm): 1800 / 단수: 5단</t>
+          <t>①가로(mm): 1200 / ②깊이(mm): 600 / ③높이(mm): 900 (선반 2단)+망치</t>
         </is>
       </c>
       <c r="G16" t="inlineStr">
         <is>
-          <t xml:space="preserve">https://smartstore.naver.com/trendkorea/products/232859403 </t>
+          <t>https://smartstore.naver.com/100hwa_store/products/5152668182</t>
         </is>
       </c>
       <c r="H16" t="inlineStr">
         <is>
-          <t>스피드랙</t>
+          <t>슈랙</t>
         </is>
       </c>
       <c r="I16" t="inlineStr">
@@ -1333,7 +1334,7 @@
       </c>
       <c r="J16" t="inlineStr">
         <is>
-          <t>트렌드코리아</t>
+          <t>백화상점 (추가4)</t>
         </is>
       </c>
       <c r="K16" t="inlineStr">
@@ -1345,7 +1346,7 @@
     <row r="17">
       <c r="A17" t="inlineStr">
         <is>
-          <t>pw****</t>
+          <t>winn*****</t>
         </is>
       </c>
       <c r="B17" t="n">
@@ -1353,21 +1354,20 @@
       </c>
       <c r="C17" t="inlineStr">
         <is>
-          <t>2024-12-19</t>
+          <t>2024-12-17</t>
         </is>
       </c>
       <c r="D17" t="inlineStr">
         <is>
-          <t>배송은 빨랐는데 조립하는게 힘들어요
-구멍도 작고 선반도 너무 딱 맞아서 끼우기 힘들었어요</t>
+          <t>처음엔 상태 좋게왔는데 이번에는 좀 찌그러져서 왔네요.. 망치로 펴서 사용했습니다</t>
         </is>
       </c>
       <c r="E17" t="n">
-        <v>49</v>
+        <v>45</v>
       </c>
       <c r="F17" t="inlineStr">
         <is>
-          <t>선반: 가로600 X 깊이300 / 높이: 900 / 단수: 3단</t>
+          <t>선반: 가로1200 X 깊이600 / 높이: 1800 / 단수: 4단</t>
         </is>
       </c>
       <c r="G17" t="inlineStr">
@@ -1399,7 +1399,7 @@
     <row r="18">
       <c r="A18" t="inlineStr">
         <is>
-          <t>dhsw********</t>
+          <t>jaya******</t>
         </is>
       </c>
       <c r="B18" t="n">
@@ -1407,30 +1407,30 @@
       </c>
       <c r="C18" t="inlineStr">
         <is>
-          <t>2024-12-19</t>
+          <t>2024-12-18</t>
         </is>
       </c>
       <c r="D18" t="inlineStr">
         <is>
-          <t>조립하는건 너무 손쉽게 할수있었으나 가로 세로 넓이 길이 문제로인하여 조금 힘들었음.</t>
+          <t>다른앵글쓰다가 이걸 쓰니깐 조금 부실한거같기도하구요...약간먼가 좀 어설펴요 ㅠ</t>
         </is>
       </c>
       <c r="E18" t="n">
-        <v>47</v>
+        <v>44</v>
       </c>
       <c r="F18" t="inlineStr">
         <is>
-          <t>①가로(mm): 1200 / ②깊이(mm): 600 / ③높이(mm): 900 (선반 2단)+망치</t>
+          <t>가로(폭)x세로(깊이)(mm): 1000x500 / 높이(mm): 1800 / 단수: 4단</t>
         </is>
       </c>
       <c r="G18" t="inlineStr">
         <is>
-          <t>https://smartstore.naver.com/100hwa_store/products/5152668182</t>
+          <t>https://smartstore.naver.com/firsteco/products/8816452635</t>
         </is>
       </c>
       <c r="H18" t="inlineStr">
         <is>
-          <t>슈랙</t>
+          <t>홈던트하우스</t>
         </is>
       </c>
       <c r="I18" t="inlineStr">
@@ -1440,7 +1440,7 @@
       </c>
       <c r="J18" t="inlineStr">
         <is>
-          <t>백화상점 (추가4)</t>
+          <t>에코퍼스트클로벌(추가7)</t>
         </is>
       </c>
       <c r="K18" t="inlineStr">
@@ -1452,7 +1452,7 @@
     <row r="19">
       <c r="A19" t="inlineStr">
         <is>
-          <t>winn*****</t>
+          <t>유정H&amp;F</t>
         </is>
       </c>
       <c r="B19" t="n">
@@ -1460,189 +1460,187 @@
       </c>
       <c r="C19" t="inlineStr">
         <is>
-          <t>2024-12-17</t>
+          <t>2024-12-18</t>
         </is>
       </c>
       <c r="D19" t="inlineStr">
-        <is>
-          <t>처음엔 상태 좋게왔는데 이번에는 좀 찌그러져서 왔네요.. 망치로 펴서 사용했습니다</t>
-        </is>
-      </c>
-      <c r="E19" t="n">
-        <v>45</v>
-      </c>
-      <c r="F19" t="inlineStr">
-        <is>
-          <t>선반: 가로1200 X 깊이600 / 높이: 1800 / 단수: 4단</t>
-        </is>
-      </c>
-      <c r="G19" t="inlineStr">
-        <is>
-          <t>https://smartstore.naver.com/soonavi/products/4737049595</t>
-        </is>
-      </c>
-      <c r="H19" t="inlineStr">
-        <is>
-          <t>피피랙</t>
-        </is>
-      </c>
-      <c r="I19" t="inlineStr">
-        <is>
-          <t>스마트스토어</t>
-        </is>
-      </c>
-      <c r="J19" t="inlineStr">
-        <is>
-          <t>수나비</t>
-        </is>
-      </c>
-      <c r="K19" t="inlineStr">
-        <is>
-          <t>선반</t>
-        </is>
-      </c>
-    </row>
-    <row r="20">
-      <c r="A20" t="inlineStr">
-        <is>
-          <t>jaya******</t>
-        </is>
-      </c>
-      <c r="B20" t="n">
-        <v>3</v>
-      </c>
-      <c r="C20" t="inlineStr">
-        <is>
-          <t>2024-12-18</t>
-        </is>
-      </c>
-      <c r="D20" t="inlineStr">
-        <is>
-          <t>다른앵글쓰다가 이걸 쓰니깐 조금 부실한거같기도하구요...약간먼가 좀 어설펴요 ㅠ</t>
-        </is>
-      </c>
-      <c r="E20" t="n">
-        <v>44</v>
-      </c>
-      <c r="F20" t="inlineStr">
-        <is>
-          <t>가로(폭)x세로(깊이)(mm): 1000x500 / 높이(mm): 1800 / 단수: 4단</t>
-        </is>
-      </c>
-      <c r="G20" t="inlineStr">
-        <is>
-          <t>https://smartstore.naver.com/firsteco/products/8816452635</t>
-        </is>
-      </c>
-      <c r="H20" t="inlineStr">
-        <is>
-          <t>홈던트하우스</t>
-        </is>
-      </c>
-      <c r="I20" t="inlineStr">
-        <is>
-          <t>스마트스토어</t>
-        </is>
-      </c>
-      <c r="J20" t="inlineStr">
-        <is>
-          <t>에코퍼스트클로벌(추가7)</t>
-        </is>
-      </c>
-      <c r="K20" t="inlineStr">
-        <is>
-          <t>선반</t>
-        </is>
-      </c>
-    </row>
-    <row r="21">
-      <c r="A21" t="inlineStr">
-        <is>
-          <t xml:space="preserve">김*영 </t>
-        </is>
-      </c>
-      <c r="B21" t="n">
-        <v>3</v>
-      </c>
-      <c r="C21" t="inlineStr">
-        <is>
-          <t>2024-12-22</t>
-        </is>
-      </c>
-      <c r="D21" t="inlineStr">
-        <is>
-          <t>사이즈 딱 맞는 정사이즈예요
-디자인 보통이에요
-크기 적당해요
-견고함 보통이에요</t>
-        </is>
-      </c>
-      <c r="E21" t="n">
-        <v>43</v>
-      </c>
-      <c r="F21" t="inlineStr">
-        <is>
-          <t>화이트, 800x400x2100mm</t>
-        </is>
-      </c>
-      <c r="G21" t="inlineStr">
-        <is>
-          <t>https://www.coupang.com/vp/products/6388944?itemId=18041849&amp;isAddedCart=</t>
-        </is>
-      </c>
-      <c r="H21" t="inlineStr">
-        <is>
-          <t>스피드랙</t>
-        </is>
-      </c>
-      <c r="I21" t="inlineStr">
-        <is>
-          <t>쿠팡</t>
-        </is>
-      </c>
-      <c r="J21" t="inlineStr">
-        <is>
-          <t>트렌드코리아</t>
-        </is>
-      </c>
-      <c r="K21" t="inlineStr">
-        <is>
-          <t>행거</t>
-        </is>
-      </c>
-    </row>
-    <row r="22">
-      <c r="A22" t="inlineStr">
-        <is>
-          <t>유정H&amp;F</t>
-        </is>
-      </c>
-      <c r="B22" t="n">
-        <v>3</v>
-      </c>
-      <c r="C22" t="inlineStr">
-        <is>
-          <t>2024-12-18</t>
-        </is>
-      </c>
-      <c r="D22" t="inlineStr">
         <is>
           <t xml:space="preserve">받침이 좀 얇고 넓게 장착이 되었으면 합니다.
 세로다 보니 부딪침이 생김
 </t>
         </is>
       </c>
+      <c r="E19" t="n">
+        <v>41</v>
+      </c>
+      <c r="F19" t="inlineStr">
+        <is>
+          <t>보강대: 500mm 백색</t>
+        </is>
+      </c>
+      <c r="G19" t="inlineStr">
+        <is>
+          <t>https://speedrack.co.kr/product/detailSimulator.html?product_no=127</t>
+        </is>
+      </c>
+      <c r="H19" t="inlineStr">
+        <is>
+          <t>스피드랙</t>
+        </is>
+      </c>
+      <c r="I19" t="inlineStr">
+        <is>
+          <t>자사몰</t>
+        </is>
+      </c>
+      <c r="J19" t="inlineStr">
+        <is>
+          <t>스피드랙 공식몰</t>
+        </is>
+      </c>
+      <c r="K19" t="inlineStr">
+        <is>
+          <t>선반(추가부품)</t>
+        </is>
+      </c>
+    </row>
+    <row r="20">
+      <c r="A20" t="inlineStr">
+        <is>
+          <t>xodi*****</t>
+        </is>
+      </c>
+      <c r="B20" t="n">
+        <v>1</v>
+      </c>
+      <c r="C20" t="inlineStr">
+        <is>
+          <t>2024-12-17</t>
+        </is>
+      </c>
+      <c r="D20" t="inlineStr">
+        <is>
+          <t>제조업 자영업 하다보니 붙박이장 만들자니 귀찮아서 구매해봤는데 후회합니다</t>
+        </is>
+      </c>
+      <c r="E20" t="n">
+        <v>40</v>
+      </c>
+      <c r="F20" t="inlineStr">
+        <is>
+          <t>가로 x 깊이(폭)(mm): 가로1000 x 깊이600 / 높이 (mm): 높이2100 / 구성 선택: 행거봉 2개 / 선반 3단</t>
+        </is>
+      </c>
+      <c r="G20" t="inlineStr">
+        <is>
+          <t>https://smartstore.naver.com/shurackathome/products/4584628047</t>
+        </is>
+      </c>
+      <c r="H20" t="inlineStr">
+        <is>
+          <t>슈랙</t>
+        </is>
+      </c>
+      <c r="I20" t="inlineStr">
+        <is>
+          <t>스마트스토어</t>
+        </is>
+      </c>
+      <c r="J20" t="inlineStr">
+        <is>
+          <t>슈랙</t>
+        </is>
+      </c>
+      <c r="K20" t="inlineStr">
+        <is>
+          <t>행거</t>
+        </is>
+      </c>
+    </row>
+    <row r="21">
+      <c r="A21" t="inlineStr">
+        <is>
+          <t>love****</t>
+        </is>
+      </c>
+      <c r="B21" t="n">
+        <v>3</v>
+      </c>
+      <c r="C21" t="inlineStr">
+        <is>
+          <t>2024-12-19</t>
+        </is>
+      </c>
+      <c r="D21" t="inlineStr">
+        <is>
+          <t>튼튼하고 좋습니다. 
+창고에 업무용 소품을 올려두었습니다. 짱짱합니다.</t>
+        </is>
+      </c>
+      <c r="E21" t="n">
+        <v>39</v>
+      </c>
+      <c r="F21" t="inlineStr">
+        <is>
+          <t>가로(폭)x세로(깊이)(mm): 1200x400 / 높이(mm): 1500 / (단수)12T양면강화합판: 4단(12T양면강화합판)</t>
+        </is>
+      </c>
+      <c r="G21" t="inlineStr">
+        <is>
+          <t>https://smartstore.naver.com/speedrackstore/products/8854765090</t>
+        </is>
+      </c>
+      <c r="H21" t="inlineStr">
+        <is>
+          <t>스피드랙</t>
+        </is>
+      </c>
+      <c r="I21" t="inlineStr">
+        <is>
+          <t>스마트스토어</t>
+        </is>
+      </c>
+      <c r="J21" t="inlineStr">
+        <is>
+          <t>퍼스트랙</t>
+        </is>
+      </c>
+      <c r="K21" t="inlineStr">
+        <is>
+          <t>선반</t>
+        </is>
+      </c>
+    </row>
+    <row r="22">
+      <c r="A22" t="inlineStr">
+        <is>
+          <t>jina****</t>
+        </is>
+      </c>
+      <c r="B22" t="n">
+        <v>3</v>
+      </c>
+      <c r="C22" t="inlineStr">
+        <is>
+          <t>2024-12-21</t>
+        </is>
+      </c>
+      <c r="D22" t="inlineStr">
+        <is>
+          <t>가격은 좀 비싼데 상판도 약하고 결국 추가로. 상판 더구매했어요</t>
+        </is>
+      </c>
       <c r="E22" t="n">
-        <v>41</v>
+        <v>35</v>
       </c>
       <c r="F22" t="inlineStr">
         <is>
-          <t>보강대: 500mm 백색</t>
+          <t>가로(mm) x 깊이(mm): 1500 x 600 / 높이(mm): 900(일체형기둥) / 단수(합판갯수): 1단(깊이받침2개)</t>
         </is>
       </c>
       <c r="G22" t="inlineStr">
         <is>
-          <t>https://speedrack.co.kr/product/detailSimulator.html?product_no=127</t>
+          <t>https://smartstore.naver.com/nrshopping/products/5525598470</t>
         </is>
       </c>
       <c r="H22" t="inlineStr">
@@ -1652,55 +1650,56 @@
       </c>
       <c r="I22" t="inlineStr">
         <is>
-          <t>자사몰</t>
+          <t>스마트스토어</t>
         </is>
       </c>
       <c r="J22" t="inlineStr">
         <is>
-          <t>스피드랙 공식몰</t>
+          <t>나라(추가2)</t>
         </is>
       </c>
       <c r="K22" t="inlineStr">
         <is>
-          <t>선반(추가부품)</t>
+          <t>선반</t>
         </is>
       </c>
     </row>
     <row r="23">
       <c r="A23" t="inlineStr">
         <is>
-          <t>xodi*****</t>
+          <t>merr******</t>
         </is>
       </c>
       <c r="B23" t="n">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="C23" t="inlineStr">
         <is>
-          <t>2024-12-17</t>
+          <t>2024-12-18</t>
         </is>
       </c>
       <c r="D23" t="inlineStr">
         <is>
-          <t>제조업 자영업 하다보니 붙박이장 만들자니 귀찮아서 구매해봤는데 후회합니다</t>
+          <t>고급스럽거나 그렇진 않아요
+받침이 플라스틱이라 좀 허접해보여요</t>
         </is>
       </c>
       <c r="E23" t="n">
-        <v>40</v>
+        <v>34</v>
       </c>
       <c r="F23" t="inlineStr">
         <is>
-          <t>가로 x 깊이(폭)(mm): 가로1000 x 깊이600 / 높이 (mm): 높이2100 / 구성 선택: 행거봉 2개 / 선반 3단</t>
+          <t>가로X깊이 (6면코팅합판+앵글): 가로800 X 깊이400 / 높이 (mm /일체형기둥): 높이 1500 / 선반단수 (칸수): 4단선반 (3칸)</t>
         </is>
       </c>
       <c r="G23" t="inlineStr">
         <is>
-          <t>https://smartstore.naver.com/shurackathome/products/4584628047</t>
+          <t>https://smartstore.naver.com/anglestudio/products/4763594399</t>
         </is>
       </c>
       <c r="H23" t="inlineStr">
         <is>
-          <t>슈랙</t>
+          <t>피피랙</t>
         </is>
       </c>
       <c r="I23" t="inlineStr">
@@ -1710,19 +1709,19 @@
       </c>
       <c r="J23" t="inlineStr">
         <is>
-          <t>슈랙</t>
+          <t>조립식앵글스튜디오</t>
         </is>
       </c>
       <c r="K23" t="inlineStr">
         <is>
-          <t>행거</t>
+          <t>선반</t>
         </is>
       </c>
     </row>
     <row r="24">
       <c r="A24" t="inlineStr">
         <is>
-          <t>love****</t>
+          <t>yl10*****</t>
         </is>
       </c>
       <c r="B24" t="n">
@@ -1730,31 +1729,30 @@
       </c>
       <c r="C24" t="inlineStr">
         <is>
-          <t>2024-12-19</t>
+          <t>2024-12-18</t>
         </is>
       </c>
       <c r="D24" t="inlineStr">
         <is>
-          <t>튼튼하고 좋습니다. 
-창고에 업무용 소품을 올려두었습니다. 짱짱합니다.</t>
+          <t>세탁실 이것저것 정리하려고 구매해서 잘 사용중ㅈ요</t>
         </is>
       </c>
       <c r="E24" t="n">
-        <v>39</v>
+        <v>27</v>
       </c>
       <c r="F24" t="inlineStr">
         <is>
-          <t>가로(폭)x세로(깊이)(mm): 1200x400 / 높이(mm): 1500 / (단수)12T양면강화합판: 4단(12T양면강화합판)</t>
+          <t>가로(폭): 700 / 세로(깊이): 500 / 높이(mm): 1350(3단)</t>
         </is>
       </c>
       <c r="G24" t="inlineStr">
         <is>
-          <t>https://smartstore.naver.com/speedrackstore/products/8854765090</t>
+          <t>https://smartstore.naver.com/speedrackstore/products/8693661267</t>
         </is>
       </c>
       <c r="H24" t="inlineStr">
         <is>
-          <t>스피드랙</t>
+          <t>홈던트하우스</t>
         </is>
       </c>
       <c r="I24" t="inlineStr">
@@ -1764,7 +1762,7 @@
       </c>
       <c r="J24" t="inlineStr">
         <is>
-          <t>퍼스트랙</t>
+          <t>랙홈(추가)</t>
         </is>
       </c>
       <c r="K24" t="inlineStr">
@@ -1776,38 +1774,38 @@
     <row r="25">
       <c r="A25" t="inlineStr">
         <is>
-          <t>jina****</t>
+          <t>hjha****</t>
         </is>
       </c>
       <c r="B25" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="C25" t="inlineStr">
         <is>
-          <t>2024-12-21</t>
+          <t>2024-12-19</t>
         </is>
       </c>
       <c r="D25" t="inlineStr">
         <is>
-          <t>가격은 좀 비싼데 상판도 약하고 결국 추가로. 상판 더구매했어요</t>
+          <t>배송중에 파손되었네요ㅠㅠ  조립해서 잘 쓸게요</t>
         </is>
       </c>
       <c r="E25" t="n">
-        <v>35</v>
+        <v>25</v>
       </c>
       <c r="F25" t="inlineStr">
         <is>
-          <t>가로(mm) x 깊이(mm): 1500 x 600 / 높이(mm): 900(일체형기둥) / 단수(합판갯수): 1단(깊이받침2개)</t>
+          <t>가로X깊이 (6면코팅합판+앵글): 가로900 X 깊이600 / 높이 (mm /일체형기둥): 높이 1800 / 선반단수 (칸수): 3단선반 (2칸)</t>
         </is>
       </c>
       <c r="G25" t="inlineStr">
         <is>
-          <t>https://smartstore.naver.com/nrshopping/products/5525598470</t>
+          <t>https://smartstore.naver.com/anglestudio/products/4763594399</t>
         </is>
       </c>
       <c r="H25" t="inlineStr">
         <is>
-          <t>스피드랙</t>
+          <t>피피랙</t>
         </is>
       </c>
       <c r="I25" t="inlineStr">
@@ -1817,7 +1815,7 @@
       </c>
       <c r="J25" t="inlineStr">
         <is>
-          <t>나라(추가2)</t>
+          <t>조립식앵글스튜디오</t>
         </is>
       </c>
       <c r="K25" t="inlineStr">
@@ -1829,7 +1827,7 @@
     <row r="26">
       <c r="A26" t="inlineStr">
         <is>
-          <t>merr******</t>
+          <t>ckhl*****</t>
         </is>
       </c>
       <c r="B26" t="n">
@@ -1837,26 +1835,26 @@
       </c>
       <c r="C26" t="inlineStr">
         <is>
-          <t>2024-12-18</t>
+          <t>2024-12-19</t>
         </is>
       </c>
       <c r="D26" t="inlineStr">
         <is>
-          <t>고급스럽거나 그렇진 않아요
-받침이 플라스틱이라 좀 허접해보여요</t>
+          <t>예전에 쓰던거 똑같이 시켰습니다
+감사합니다</t>
         </is>
       </c>
       <c r="E26" t="n">
-        <v>34</v>
+        <v>23</v>
       </c>
       <c r="F26" t="inlineStr">
         <is>
-          <t>가로X깊이 (6면코팅합판+앵글): 가로800 X 깊이400 / 높이 (mm /일체형기둥): 높이 1500 / 선반단수 (칸수): 4단선반 (3칸)</t>
+          <t>가로: 1200 / 깊이: 600 / 높이: 900</t>
         </is>
       </c>
       <c r="G26" t="inlineStr">
         <is>
-          <t>https://smartstore.naver.com/anglestudio/products/4763594399</t>
+          <t>https://brand.naver.com/soonavi/products/4738001704</t>
         </is>
       </c>
       <c r="H26" t="inlineStr">
@@ -1871,7 +1869,7 @@
       </c>
       <c r="J26" t="inlineStr">
         <is>
-          <t>조립식앵글스튜디오</t>
+          <t>수나비(추가7)</t>
         </is>
       </c>
       <c r="K26" t="inlineStr">
@@ -1883,7 +1881,7 @@
     <row r="27">
       <c r="A27" t="inlineStr">
         <is>
-          <t>yl10*****</t>
+          <t>s0****</t>
         </is>
       </c>
       <c r="B27" t="n">
@@ -1891,30 +1889,31 @@
       </c>
       <c r="C27" t="inlineStr">
         <is>
-          <t>2024-12-18</t>
+          <t>2024-12-16</t>
         </is>
       </c>
       <c r="D27" t="inlineStr">
         <is>
-          <t>세탁실 이것저것 정리하려고 구매해서 잘 사용중ㅈ요</t>
+          <t>제품은 좋은데
+사이즈 선정을 잘못했어요</t>
         </is>
       </c>
       <c r="E27" t="n">
-        <v>27</v>
+        <v>21</v>
       </c>
       <c r="F27" t="inlineStr">
         <is>
-          <t>가로(폭): 700 / 세로(깊이): 500 / 높이(mm): 1350(3단)</t>
+          <t>가로X깊이 (6면코팅합판+앵글): 가로400 X 깊이300 / 높이 (mm /일체형기둥): 높이 2100 / 선반단수(칸수) +후크4개: 5단선반(4칸) +후크4개</t>
         </is>
       </c>
       <c r="G27" t="inlineStr">
         <is>
-          <t>https://smartstore.naver.com/speedrackstore/products/8693661267</t>
+          <t>https://smartstore.naver.com/anglestudio/products/4703381999</t>
         </is>
       </c>
       <c r="H27" t="inlineStr">
         <is>
-          <t>홈던트하우스</t>
+          <t>피피랙</t>
         </is>
       </c>
       <c r="I27" t="inlineStr">
@@ -1924,7 +1923,7 @@
       </c>
       <c r="J27" t="inlineStr">
         <is>
-          <t>랙홈(추가)</t>
+          <t>수나비(추가7)</t>
         </is>
       </c>
       <c r="K27" t="inlineStr">
@@ -1936,38 +1935,38 @@
     <row r="28">
       <c r="A28" t="inlineStr">
         <is>
-          <t>hjha****</t>
+          <t>keh6***</t>
         </is>
       </c>
       <c r="B28" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="C28" t="inlineStr">
         <is>
-          <t>2024-12-19</t>
+          <t>2024-12-18</t>
         </is>
       </c>
       <c r="D28" t="inlineStr">
         <is>
-          <t>배송중에 파손되었네요ㅠㅠ  조립해서 잘 쓸게요</t>
+          <t>시스템행거처럼 드레스룸 깔끔해서 좋아요</t>
         </is>
       </c>
       <c r="E28" t="n">
-        <v>25</v>
+        <v>21</v>
       </c>
       <c r="F28" t="inlineStr">
         <is>
-          <t>가로X깊이 (6면코팅합판+앵글): 가로900 X 깊이600 / 높이 (mm /일체형기둥): 높이 1800 / 선반단수 (칸수): 3단선반 (2칸)</t>
+          <t>가로(폭)x세로(깊이)(mm): 1100x600(mm) / 높이(mm): 2100(mm) / 단수 / 행거봉: 3단 / 2행거</t>
         </is>
       </c>
       <c r="G28" t="inlineStr">
         <is>
-          <t>https://smartstore.naver.com/anglestudio/products/4763594399</t>
+          <t>https://smartstore.naver.com/speedrackstore/products/8693699113</t>
         </is>
       </c>
       <c r="H28" t="inlineStr">
         <is>
-          <t>피피랙</t>
+          <t>홈던트하우스</t>
         </is>
       </c>
       <c r="I28" t="inlineStr">
@@ -1977,19 +1976,19 @@
       </c>
       <c r="J28" t="inlineStr">
         <is>
-          <t>조립식앵글스튜디오</t>
+          <t>랙홈(추가)</t>
         </is>
       </c>
       <c r="K28" t="inlineStr">
         <is>
-          <t>선반</t>
+          <t xml:space="preserve">행거 </t>
         </is>
       </c>
     </row>
     <row r="29">
       <c r="A29" t="inlineStr">
         <is>
-          <t>ckhl*****</t>
+          <t>choi****</t>
         </is>
       </c>
       <c r="B29" t="n">
@@ -1997,31 +1996,30 @@
       </c>
       <c r="C29" t="inlineStr">
         <is>
-          <t>2024-12-19</t>
+          <t>2024-12-18</t>
         </is>
       </c>
       <c r="D29" t="inlineStr">
         <is>
-          <t>예전에 쓰던거 똑같이 시켰습니다
-감사합니다</t>
+          <t>배송은빠르나 가격대비 프레임이 약해요</t>
         </is>
       </c>
       <c r="E29" t="n">
-        <v>23</v>
+        <v>20</v>
       </c>
       <c r="F29" t="inlineStr">
         <is>
-          <t>가로: 1200 / 깊이: 600 / 높이: 900</t>
+          <t>가로 x 깊이(폭)(mm): 가로1200 x 깊이400 / 높이 (mm): 높이2100 / 구성 선택: 행거봉 1개 / 선반 2단</t>
         </is>
       </c>
       <c r="G29" t="inlineStr">
         <is>
-          <t>https://brand.naver.com/soonavi/products/4738001704</t>
+          <t>https://smartstore.naver.com/shurackathome/products/4584628047</t>
         </is>
       </c>
       <c r="H29" t="inlineStr">
         <is>
-          <t>피피랙</t>
+          <t>슈랙</t>
         </is>
       </c>
       <c r="I29" t="inlineStr">
@@ -2031,46 +2029,45 @@
       </c>
       <c r="J29" t="inlineStr">
         <is>
-          <t>수나비(추가7)</t>
+          <t>슈랙</t>
         </is>
       </c>
       <c r="K29" t="inlineStr">
         <is>
-          <t>선반</t>
+          <t>행거</t>
         </is>
       </c>
     </row>
     <row r="30">
       <c r="A30" t="inlineStr">
         <is>
-          <t>s0****</t>
+          <t>hjha****</t>
         </is>
       </c>
       <c r="B30" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="C30" t="inlineStr">
         <is>
-          <t>2024-12-16</t>
+          <t>2024-12-19</t>
         </is>
       </c>
       <c r="D30" t="inlineStr">
         <is>
-          <t>제품은 좋은데
-사이즈 선정을 잘못했어요</t>
+          <t>파손되었어요ㅠㅠ 조립해서 잘 쓸게요</t>
         </is>
       </c>
       <c r="E30" t="n">
-        <v>21</v>
+        <v>19</v>
       </c>
       <c r="F30" t="inlineStr">
         <is>
-          <t>가로X깊이 (6면코팅합판+앵글): 가로400 X 깊이300 / 높이 (mm /일체형기둥): 높이 2100 / 선반단수(칸수) +후크4개: 5단선반(4칸) +후크4개</t>
+          <t>가로X깊이 (6면코팅합판+앵글): 가로900 X 깊이600 / 높이 (mm /일체형기둥): 높이 1800 / 선반단수 (칸수): 3단선반 (2칸)</t>
         </is>
       </c>
       <c r="G30" t="inlineStr">
         <is>
-          <t>https://smartstore.naver.com/anglestudio/products/4703381999</t>
+          <t>https://smartstore.naver.com/anglestudio/products/4763594399</t>
         </is>
       </c>
       <c r="H30" t="inlineStr">
@@ -2085,7 +2082,7 @@
       </c>
       <c r="J30" t="inlineStr">
         <is>
-          <t>수나비(추가7)</t>
+          <t>조립식앵글스튜디오</t>
         </is>
       </c>
       <c r="K30" t="inlineStr">
@@ -2097,7 +2094,7 @@
     <row r="31">
       <c r="A31" t="inlineStr">
         <is>
-          <t>keh6***</t>
+          <t>red7***</t>
         </is>
       </c>
       <c r="B31" t="n">
@@ -2110,25 +2107,25 @@
       </c>
       <c r="D31" t="inlineStr">
         <is>
-          <t>시스템행거처럼 드레스룸 깔끔해서 좋아요</t>
+          <t>배송이 빠르고 저렴하게 구매했어요</t>
         </is>
       </c>
       <c r="E31" t="n">
-        <v>21</v>
+        <v>18</v>
       </c>
       <c r="F31" t="inlineStr">
         <is>
-          <t>가로(폭)x세로(깊이)(mm): 1100x600(mm) / 높이(mm): 2100(mm) / 단수 / 행거봉: 3단 / 2행거</t>
+          <t>가로(mm) x 깊이(mm): 800 x 500 / 높이(mm): 1200 / 단수(합판갯수): 4단</t>
         </is>
       </c>
       <c r="G31" t="inlineStr">
         <is>
-          <t>https://smartstore.naver.com/speedrackstore/products/8693699113</t>
+          <t>https://smartstore.naver.com/nrshopping/products/8051763000</t>
         </is>
       </c>
       <c r="H31" t="inlineStr">
         <is>
-          <t>홈던트하우스</t>
+          <t>스피드랙</t>
         </is>
       </c>
       <c r="I31" t="inlineStr">
@@ -2138,19 +2135,19 @@
       </c>
       <c r="J31" t="inlineStr">
         <is>
-          <t>랙홈(추가)</t>
+          <t>나라(추가5)</t>
         </is>
       </c>
       <c r="K31" t="inlineStr">
         <is>
-          <t xml:space="preserve">행거 </t>
+          <t>선반</t>
         </is>
       </c>
     </row>
     <row r="32">
       <c r="A32" t="inlineStr">
         <is>
-          <t>choi****</t>
+          <t>bh****</t>
         </is>
       </c>
       <c r="B32" t="n">
@@ -2163,25 +2160,25 @@
       </c>
       <c r="D32" t="inlineStr">
         <is>
-          <t>배송은빠르나 가격대비 프레임이 약해요</t>
+          <t>다용도로  사용할수있어서 좋습니다</t>
         </is>
       </c>
       <c r="E32" t="n">
-        <v>20</v>
+        <v>18</v>
       </c>
       <c r="F32" t="inlineStr">
         <is>
-          <t>가로 x 깊이(폭)(mm): 가로1200 x 깊이400 / 높이 (mm): 높이2100 / 구성 선택: 행거봉 1개 / 선반 2단</t>
+          <t>가로(폭): 500 / 세로(깊이): 300 / 높이(mm): 1200(2단)</t>
         </is>
       </c>
       <c r="G32" t="inlineStr">
         <is>
-          <t>https://smartstore.naver.com/shurackathome/products/4584628047</t>
+          <t>https://smartstore.naver.com/speedrackstore/products/8693830704</t>
         </is>
       </c>
       <c r="H32" t="inlineStr">
         <is>
-          <t>슈랙</t>
+          <t>홈던트하우스</t>
         </is>
       </c>
       <c r="I32" t="inlineStr">
@@ -2191,50 +2188,50 @@
       </c>
       <c r="J32" t="inlineStr">
         <is>
-          <t>슈랙</t>
+          <t>랙홈(추가7)</t>
         </is>
       </c>
       <c r="K32" t="inlineStr">
         <is>
-          <t>행거</t>
+          <t>선반</t>
         </is>
       </c>
     </row>
     <row r="33">
       <c r="A33" t="inlineStr">
         <is>
-          <t>hjha****</t>
+          <t>guar*****</t>
         </is>
       </c>
       <c r="B33" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="C33" t="inlineStr">
         <is>
-          <t>2024-12-19</t>
+          <t>2024-12-15</t>
         </is>
       </c>
       <c r="D33" t="inlineStr">
         <is>
-          <t>파손되었어요ㅠㅠ 조립해서 잘 쓸게요</t>
+          <t>그냥 적당한 용도로 사용합니다</t>
         </is>
       </c>
       <c r="E33" t="n">
-        <v>19</v>
+        <v>16</v>
       </c>
       <c r="F33" t="inlineStr">
         <is>
-          <t>가로X깊이 (6면코팅합판+앵글): 가로900 X 깊이600 / 높이 (mm /일체형기둥): 높이 1800 / 선반단수 (칸수): 3단선반 (2칸)</t>
+          <t>가로 x 폭 (mm): 1000x500 / 높이 (mm): 1800 / 단수: 4단</t>
         </is>
       </c>
       <c r="G33" t="inlineStr">
         <is>
-          <t>https://smartstore.naver.com/anglestudio/products/4763594399</t>
+          <t>https://smartstore.naver.com/angelforyou/products/3035930702</t>
         </is>
       </c>
       <c r="H33" t="inlineStr">
         <is>
-          <t>피피랙</t>
+          <t>스피드랙</t>
         </is>
       </c>
       <c r="I33" t="inlineStr">
@@ -2244,7 +2241,7 @@
       </c>
       <c r="J33" t="inlineStr">
         <is>
-          <t>조립식앵글스튜디오</t>
+          <t>앵글포유</t>
         </is>
       </c>
       <c r="K33" t="inlineStr">
@@ -2256,7 +2253,7 @@
     <row r="34">
       <c r="A34" t="inlineStr">
         <is>
-          <t>chin*******</t>
+          <t>mann*******</t>
         </is>
       </c>
       <c r="B34" t="n">
@@ -2264,30 +2261,30 @@
       </c>
       <c r="C34" t="inlineStr">
         <is>
-          <t>2024-12-22</t>
+          <t>2024-12-20</t>
         </is>
       </c>
       <c r="D34" t="inlineStr">
         <is>
-          <t>배송 빠르고 조립이 어렵지 않아요</t>
+          <t>여러번 사서 쓰지만 튼튼해요</t>
         </is>
       </c>
       <c r="E34" t="n">
-        <v>18</v>
+        <v>15</v>
       </c>
       <c r="F34" t="inlineStr">
         <is>
-          <t>가로X깊이 (6면코팅합판+앵글): 가로900 X 깊이400 / 높이 (mm /일체형기둥): 높이 600 / 선반단수 (칸수): 2단선반 (1칸)</t>
+          <t>가로x깊이(설치시 여유공간확보): 가로800x깊이400 / 높이: 600(3단)</t>
         </is>
       </c>
       <c r="G34" t="inlineStr">
         <is>
-          <t>https://smartstore.naver.com/anglestudio/products/4763594399</t>
+          <t>https://smartstore.naver.com/estorehouse/products/5095214754</t>
         </is>
       </c>
       <c r="H34" t="inlineStr">
         <is>
-          <t>피피랙</t>
+          <t>스피드랙</t>
         </is>
       </c>
       <c r="I34" t="inlineStr">
@@ -2297,7 +2294,7 @@
       </c>
       <c r="J34" t="inlineStr">
         <is>
-          <t>조립식앵글스튜디오</t>
+          <t>스피드랙 온라인지점</t>
         </is>
       </c>
       <c r="K34" t="inlineStr">
@@ -2309,7 +2306,7 @@
     <row r="35">
       <c r="A35" t="inlineStr">
         <is>
-          <t>red7***</t>
+          <t>rla5***</t>
         </is>
       </c>
       <c r="B35" t="n">
@@ -2317,30 +2314,30 @@
       </c>
       <c r="C35" t="inlineStr">
         <is>
-          <t>2024-12-18</t>
+          <t>2024-12-21</t>
         </is>
       </c>
       <c r="D35" t="inlineStr">
         <is>
-          <t>배송이 빠르고 저렴하게 구매했어요</t>
+          <t>좋아요 아주 좋아 좋아 좋아</t>
         </is>
       </c>
       <c r="E35" t="n">
-        <v>18</v>
+        <v>15</v>
       </c>
       <c r="F35" t="inlineStr">
         <is>
-          <t>가로(mm) x 깊이(mm): 800 x 500 / 높이(mm): 1200 / 단수(합판갯수): 4단</t>
+          <t>가로 x 깊이(폭)(mm): 가로1000 x 깊이500 / 높이 (mm): 높이2100 / 구성 선택: 행거봉 1개 / 선반 3단</t>
         </is>
       </c>
       <c r="G35" t="inlineStr">
         <is>
-          <t>https://smartstore.naver.com/nrshopping/products/8051763000</t>
+          <t>https://smartstore.naver.com/shurackathome/products/4584628047</t>
         </is>
       </c>
       <c r="H35" t="inlineStr">
         <is>
-          <t>스피드랙</t>
+          <t>슈랙</t>
         </is>
       </c>
       <c r="I35" t="inlineStr">
@@ -2350,19 +2347,19 @@
       </c>
       <c r="J35" t="inlineStr">
         <is>
-          <t>나라(추가5)</t>
+          <t>슈랙</t>
         </is>
       </c>
       <c r="K35" t="inlineStr">
         <is>
-          <t>선반</t>
+          <t>행거</t>
         </is>
       </c>
     </row>
     <row r="36">
       <c r="A36" t="inlineStr">
         <is>
-          <t>bh****</t>
+          <t>hotv******</t>
         </is>
       </c>
       <c r="B36" t="n">
@@ -2370,30 +2367,30 @@
       </c>
       <c r="C36" t="inlineStr">
         <is>
-          <t>2024-12-18</t>
+          <t>2024-12-17</t>
         </is>
       </c>
       <c r="D36" t="inlineStr">
         <is>
-          <t>다용도로  사용할수있어서 좋습니다</t>
+          <t>설치도 쉽고 튼튼합니다!</t>
         </is>
       </c>
       <c r="E36" t="n">
-        <v>18</v>
+        <v>13</v>
       </c>
       <c r="F36" t="inlineStr">
         <is>
-          <t>가로(폭): 500 / 세로(깊이): 300 / 높이(mm): 1200(2단)</t>
+          <t>가로(W) mm: 700 / 깊이(D) mm: 300 / 높이(H) mm: 1500 (기본 2단)</t>
         </is>
       </c>
       <c r="G36" t="inlineStr">
         <is>
-          <t>https://smartstore.naver.com/speedrackstore/products/8693830704</t>
+          <t>https://smartstore.naver.com/checknsell/products/4770564406</t>
         </is>
       </c>
       <c r="H36" t="inlineStr">
         <is>
-          <t>홈던트하우스</t>
+          <t>슈랙</t>
         </is>
       </c>
       <c r="I36" t="inlineStr">
@@ -2403,7 +2400,7 @@
       </c>
       <c r="J36" t="inlineStr">
         <is>
-          <t>랙홈(추가7)</t>
+          <t>체크앤셀</t>
         </is>
       </c>
       <c r="K36" t="inlineStr">
@@ -2415,7 +2412,7 @@
     <row r="37">
       <c r="A37" t="inlineStr">
         <is>
-          <t>guar*****</t>
+          <t>ceo_***</t>
         </is>
       </c>
       <c r="B37" t="n">
@@ -2423,25 +2420,25 @@
       </c>
       <c r="C37" t="inlineStr">
         <is>
-          <t>2024-12-15</t>
+          <t>2024-12-19</t>
         </is>
       </c>
       <c r="D37" t="inlineStr">
         <is>
-          <t>그냥 적당한 용도로 사용합니다</t>
+          <t>빠른 배송 좋았습니다.</t>
         </is>
       </c>
       <c r="E37" t="n">
-        <v>16</v>
+        <v>12</v>
       </c>
       <c r="F37" t="inlineStr">
         <is>
-          <t>가로 x 폭 (mm): 1000x500 / 높이 (mm): 1800 / 단수: 4단</t>
+          <t>가로(mm) x 깊이(mm): 1000 x 500 / 높이(mm): 1800 / 단수(합판갯수): 3단(9mm양면코팅합판)</t>
         </is>
       </c>
       <c r="G37" t="inlineStr">
         <is>
-          <t>https://smartstore.naver.com/angelforyou/products/3035930702</t>
+          <t>https://smartstore.naver.com/nrshopping/products/2740578012</t>
         </is>
       </c>
       <c r="H37" t="inlineStr">
@@ -2456,7 +2453,7 @@
       </c>
       <c r="J37" t="inlineStr">
         <is>
-          <t>앵글포유</t>
+          <t>나라(추가5)</t>
         </is>
       </c>
       <c r="K37" t="inlineStr">
@@ -2468,7 +2465,7 @@
     <row r="38">
       <c r="A38" t="inlineStr">
         <is>
-          <t>mann*******</t>
+          <t>rla5***</t>
         </is>
       </c>
       <c r="B38" t="n">
@@ -2476,30 +2473,30 @@
       </c>
       <c r="C38" t="inlineStr">
         <is>
-          <t>2024-12-20</t>
+          <t>2024-12-21</t>
         </is>
       </c>
       <c r="D38" t="inlineStr">
         <is>
-          <t>여러번 사서 쓰지만 튼튼해요</t>
+          <t>좋아요 아주 좋아 좋아</t>
         </is>
       </c>
       <c r="E38" t="n">
-        <v>15</v>
+        <v>12</v>
       </c>
       <c r="F38" t="inlineStr">
         <is>
-          <t>가로x깊이(설치시 여유공간확보): 가로800x깊이400 / 높이: 600(3단)</t>
+          <t>가로 x 깊이(폭)(mm): 가로700 x 깊이500 / 높이 (mm): 높이2100 / 구성 선택: 행거봉 1개 / 선반 4단</t>
         </is>
       </c>
       <c r="G38" t="inlineStr">
         <is>
-          <t>https://smartstore.naver.com/estorehouse/products/5095214754</t>
+          <t>https://smartstore.naver.com/shurackathome/products/4584628047</t>
         </is>
       </c>
       <c r="H38" t="inlineStr">
         <is>
-          <t>스피드랙</t>
+          <t>슈랙</t>
         </is>
       </c>
       <c r="I38" t="inlineStr">
@@ -2509,19 +2506,19 @@
       </c>
       <c r="J38" t="inlineStr">
         <is>
-          <t>스피드랙 온라인지점</t>
+          <t>슈랙</t>
         </is>
       </c>
       <c r="K38" t="inlineStr">
         <is>
-          <t>선반</t>
+          <t>행거</t>
         </is>
       </c>
     </row>
     <row r="39">
       <c r="A39" t="inlineStr">
         <is>
-          <t>rla5***</t>
+          <t>wlst*****</t>
         </is>
       </c>
       <c r="B39" t="n">
@@ -2529,25 +2526,25 @@
       </c>
       <c r="C39" t="inlineStr">
         <is>
-          <t>2024-12-21</t>
+          <t>2024-12-15</t>
         </is>
       </c>
       <c r="D39" t="inlineStr">
         <is>
-          <t>좋아요 아주 좋아 좋아 좋아</t>
+          <t>정말튼튼함 믿고 사요</t>
         </is>
       </c>
       <c r="E39" t="n">
-        <v>15</v>
+        <v>11</v>
       </c>
       <c r="F39" t="inlineStr">
         <is>
-          <t>가로 x 깊이(폭)(mm): 가로1000 x 깊이500 / 높이 (mm): 높이2100 / 구성 선택: 행거봉 1개 / 선반 3단</t>
+          <t>가로(W) mm: 600 / 깊이(D) mm: 400 / 높이(H) mm: 1800 (기본 2단)</t>
         </is>
       </c>
       <c r="G39" t="inlineStr">
         <is>
-          <t>https://smartstore.naver.com/shurackathome/products/4584628047</t>
+          <t>https://smartstore.naver.com/checknsell/products/4770564406</t>
         </is>
       </c>
       <c r="H39" t="inlineStr">
@@ -2562,19 +2559,19 @@
       </c>
       <c r="J39" t="inlineStr">
         <is>
-          <t>슈랙</t>
+          <t>체크앤셀</t>
         </is>
       </c>
       <c r="K39" t="inlineStr">
         <is>
-          <t>행거</t>
+          <t>선반</t>
         </is>
       </c>
     </row>
     <row r="40">
       <c r="A40" t="inlineStr">
         <is>
-          <t>hotv******</t>
+          <t>chul****</t>
         </is>
       </c>
       <c r="B40" t="n">
@@ -2582,30 +2579,30 @@
       </c>
       <c r="C40" t="inlineStr">
         <is>
-          <t>2024-12-17</t>
+          <t>2024-12-19</t>
         </is>
       </c>
       <c r="D40" t="inlineStr">
         <is>
-          <t>설치도 쉽고 튼튼합니다!</t>
+          <t>배송이 빨라서 좋아요</t>
         </is>
       </c>
       <c r="E40" t="n">
-        <v>13</v>
+        <v>11</v>
       </c>
       <c r="F40" t="inlineStr">
         <is>
-          <t>가로(W) mm: 700 / 깊이(D) mm: 300 / 높이(H) mm: 1500 (기본 2단)</t>
+          <t>가로사이즈 (mm): 가로1200mm / 깊이(폭)사이즈 (mm): 깊이(폭)500mm / 높이(기둥)사이즈 (mm) + 단수: 높이(기둥)1500mm(2단)</t>
         </is>
       </c>
       <c r="G40" t="inlineStr">
         <is>
-          <t>https://smartstore.naver.com/checknsell/products/4770564406</t>
+          <t>https://smartstore.naver.com/sunbanstory/products/6423922812</t>
         </is>
       </c>
       <c r="H40" t="inlineStr">
         <is>
-          <t>슈랙</t>
+          <t>홈던트하우스</t>
         </is>
       </c>
       <c r="I40" t="inlineStr">
@@ -2615,7 +2612,7 @@
       </c>
       <c r="J40" t="inlineStr">
         <is>
-          <t>체크앤셀</t>
+          <t>앵그리선반</t>
         </is>
       </c>
       <c r="K40" t="inlineStr">
@@ -2627,7 +2624,7 @@
     <row r="41">
       <c r="A41" t="inlineStr">
         <is>
-          <t>ceo_***</t>
+          <t>kjh6******</t>
         </is>
       </c>
       <c r="B41" t="n">
@@ -2635,30 +2632,30 @@
       </c>
       <c r="C41" t="inlineStr">
         <is>
-          <t>2024-12-19</t>
+          <t>2024-12-21</t>
         </is>
       </c>
       <c r="D41" t="inlineStr">
         <is>
-          <t>빠른 배송 좋았습니다.</t>
+          <t>배송 엄청 빠르네요</t>
         </is>
       </c>
       <c r="E41" t="n">
-        <v>12</v>
+        <v>10</v>
       </c>
       <c r="F41" t="inlineStr">
         <is>
-          <t>가로(mm) x 깊이(mm): 1000 x 500 / 높이(mm): 1800 / 단수(합판갯수): 3단(9mm양면코팅합판)</t>
+          <t>앵글색상: 블랙 / 가로x깊이(mm): 900x600 / 높이(mm)단수2단: 1800(2단)고급합판포함</t>
         </is>
       </c>
       <c r="G41" t="inlineStr">
         <is>
-          <t>https://smartstore.naver.com/nrshopping/products/2740578012</t>
+          <t>https://smartstore.naver.com/easycontact/products/4729605882</t>
         </is>
       </c>
       <c r="H41" t="inlineStr">
         <is>
-          <t>스피드랙</t>
+          <t>피피랙</t>
         </is>
       </c>
       <c r="I41" t="inlineStr">
@@ -2668,19 +2665,19 @@
       </c>
       <c r="J41" t="inlineStr">
         <is>
-          <t>나라(추가5)</t>
+          <t>이지컨택</t>
         </is>
       </c>
       <c r="K41" t="inlineStr">
         <is>
-          <t>선반</t>
+          <t>선반형</t>
         </is>
       </c>
     </row>
     <row r="42">
       <c r="A42" t="inlineStr">
         <is>
-          <t>rla5***</t>
+          <t>kim6******</t>
         </is>
       </c>
       <c r="B42" t="n">
@@ -2688,30 +2685,30 @@
       </c>
       <c r="C42" t="inlineStr">
         <is>
-          <t>2024-12-21</t>
+          <t>2024-12-18</t>
         </is>
       </c>
       <c r="D42" t="inlineStr">
         <is>
-          <t>좋아요 아주 좋아 좋아</t>
+          <t>감사합니다 고마워요</t>
         </is>
       </c>
       <c r="E42" t="n">
-        <v>12</v>
+        <v>10</v>
       </c>
       <c r="F42" t="inlineStr">
         <is>
-          <t>가로 x 깊이(폭)(mm): 가로700 x 깊이500 / 높이 (mm): 높이2100 / 구성 선택: 행거봉 1개 / 선반 4단</t>
+          <t>가로(폭)x세로(깊이)(mm): 1100x600 / 높이(mm): 1650 / 단수: 3단</t>
         </is>
       </c>
       <c r="G42" t="inlineStr">
         <is>
-          <t>https://smartstore.naver.com/shurackathome/products/4584628047</t>
+          <t>https://smartstore.naver.com/firsteco/products/8816452635</t>
         </is>
       </c>
       <c r="H42" t="inlineStr">
         <is>
-          <t>슈랙</t>
+          <t>홈던트하우스</t>
         </is>
       </c>
       <c r="I42" t="inlineStr">
@@ -2721,19 +2718,19 @@
       </c>
       <c r="J42" t="inlineStr">
         <is>
-          <t>슈랙</t>
+          <t>에코퍼스트클로벌(추가7)</t>
         </is>
       </c>
       <c r="K42" t="inlineStr">
         <is>
-          <t>행거</t>
+          <t>선반</t>
         </is>
       </c>
     </row>
     <row r="43">
       <c r="A43" t="inlineStr">
         <is>
-          <t>wlst*****</t>
+          <t>yoon****</t>
         </is>
       </c>
       <c r="B43" t="n">
@@ -2741,25 +2738,25 @@
       </c>
       <c r="C43" t="inlineStr">
         <is>
-          <t>2024-12-15</t>
+          <t>2024-12-21</t>
         </is>
       </c>
       <c r="D43" t="inlineStr">
         <is>
-          <t>정말튼튼함 믿고 사요</t>
+          <t>그럭저럭 평범합니다</t>
         </is>
       </c>
       <c r="E43" t="n">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="F43" t="inlineStr">
         <is>
-          <t>가로(W) mm: 600 / 깊이(D) mm: 400 / 높이(H) mm: 1800 (기본 2단)</t>
+          <t>가로 x 깊이(폭)(mm): 가로1200 x 깊이500 / 높이 (mm): 높이1800 / 구성 선택: 행거봉 1개 / 선반 3단</t>
         </is>
       </c>
       <c r="G43" t="inlineStr">
         <is>
-          <t>https://smartstore.naver.com/checknsell/products/4770564406</t>
+          <t>https://smartstore.naver.com/shurackathome/products/4584628047</t>
         </is>
       </c>
       <c r="H43" t="inlineStr">
@@ -2774,222 +2771,10 @@
       </c>
       <c r="J43" t="inlineStr">
         <is>
-          <t>체크앤셀</t>
+          <t>슈랙</t>
         </is>
       </c>
       <c r="K43" t="inlineStr">
-        <is>
-          <t>선반</t>
-        </is>
-      </c>
-    </row>
-    <row r="44">
-      <c r="A44" t="inlineStr">
-        <is>
-          <t>chul****</t>
-        </is>
-      </c>
-      <c r="B44" t="n">
-        <v>3</v>
-      </c>
-      <c r="C44" t="inlineStr">
-        <is>
-          <t>2024-12-19</t>
-        </is>
-      </c>
-      <c r="D44" t="inlineStr">
-        <is>
-          <t>배송이 빨라서 좋아요</t>
-        </is>
-      </c>
-      <c r="E44" t="n">
-        <v>11</v>
-      </c>
-      <c r="F44" t="inlineStr">
-        <is>
-          <t>가로사이즈 (mm): 가로1200mm / 깊이(폭)사이즈 (mm): 깊이(폭)500mm / 높이(기둥)사이즈 (mm) + 단수: 높이(기둥)1500mm(2단)</t>
-        </is>
-      </c>
-      <c r="G44" t="inlineStr">
-        <is>
-          <t>https://smartstore.naver.com/sunbanstory/products/6423922812</t>
-        </is>
-      </c>
-      <c r="H44" t="inlineStr">
-        <is>
-          <t>홈던트하우스</t>
-        </is>
-      </c>
-      <c r="I44" t="inlineStr">
-        <is>
-          <t>스마트스토어</t>
-        </is>
-      </c>
-      <c r="J44" t="inlineStr">
-        <is>
-          <t>앵그리선반</t>
-        </is>
-      </c>
-      <c r="K44" t="inlineStr">
-        <is>
-          <t>선반</t>
-        </is>
-      </c>
-    </row>
-    <row r="45">
-      <c r="A45" t="inlineStr">
-        <is>
-          <t>kjh6******</t>
-        </is>
-      </c>
-      <c r="B45" t="n">
-        <v>3</v>
-      </c>
-      <c r="C45" t="inlineStr">
-        <is>
-          <t>2024-12-21</t>
-        </is>
-      </c>
-      <c r="D45" t="inlineStr">
-        <is>
-          <t>배송 엄청 빠르네요</t>
-        </is>
-      </c>
-      <c r="E45" t="n">
-        <v>10</v>
-      </c>
-      <c r="F45" t="inlineStr">
-        <is>
-          <t>앵글색상: 블랙 / 가로x깊이(mm): 900x600 / 높이(mm)단수2단: 1800(2단)고급합판포함</t>
-        </is>
-      </c>
-      <c r="G45" t="inlineStr">
-        <is>
-          <t>https://smartstore.naver.com/easycontact/products/4729605882</t>
-        </is>
-      </c>
-      <c r="H45" t="inlineStr">
-        <is>
-          <t>피피랙</t>
-        </is>
-      </c>
-      <c r="I45" t="inlineStr">
-        <is>
-          <t>스마트스토어</t>
-        </is>
-      </c>
-      <c r="J45" t="inlineStr">
-        <is>
-          <t>이지컨택</t>
-        </is>
-      </c>
-      <c r="K45" t="inlineStr">
-        <is>
-          <t>선반형</t>
-        </is>
-      </c>
-    </row>
-    <row r="46">
-      <c r="A46" t="inlineStr">
-        <is>
-          <t>kim6******</t>
-        </is>
-      </c>
-      <c r="B46" t="n">
-        <v>3</v>
-      </c>
-      <c r="C46" t="inlineStr">
-        <is>
-          <t>2024-12-18</t>
-        </is>
-      </c>
-      <c r="D46" t="inlineStr">
-        <is>
-          <t>감사합니다 고마워요</t>
-        </is>
-      </c>
-      <c r="E46" t="n">
-        <v>10</v>
-      </c>
-      <c r="F46" t="inlineStr">
-        <is>
-          <t>가로(폭)x세로(깊이)(mm): 1100x600 / 높이(mm): 1650 / 단수: 3단</t>
-        </is>
-      </c>
-      <c r="G46" t="inlineStr">
-        <is>
-          <t>https://smartstore.naver.com/firsteco/products/8816452635</t>
-        </is>
-      </c>
-      <c r="H46" t="inlineStr">
-        <is>
-          <t>홈던트하우스</t>
-        </is>
-      </c>
-      <c r="I46" t="inlineStr">
-        <is>
-          <t>스마트스토어</t>
-        </is>
-      </c>
-      <c r="J46" t="inlineStr">
-        <is>
-          <t>에코퍼스트클로벌(추가7)</t>
-        </is>
-      </c>
-      <c r="K46" t="inlineStr">
-        <is>
-          <t>선반</t>
-        </is>
-      </c>
-    </row>
-    <row r="47">
-      <c r="A47" t="inlineStr">
-        <is>
-          <t>yoon****</t>
-        </is>
-      </c>
-      <c r="B47" t="n">
-        <v>3</v>
-      </c>
-      <c r="C47" t="inlineStr">
-        <is>
-          <t>2024-12-21</t>
-        </is>
-      </c>
-      <c r="D47" t="inlineStr">
-        <is>
-          <t>그럭저럭 평범합니다</t>
-        </is>
-      </c>
-      <c r="E47" t="n">
-        <v>10</v>
-      </c>
-      <c r="F47" t="inlineStr">
-        <is>
-          <t>가로 x 깊이(폭)(mm): 가로1200 x 깊이500 / 높이 (mm): 높이1800 / 구성 선택: 행거봉 1개 / 선반 3단</t>
-        </is>
-      </c>
-      <c r="G47" t="inlineStr">
-        <is>
-          <t>https://smartstore.naver.com/shurackathome/products/4584628047</t>
-        </is>
-      </c>
-      <c r="H47" t="inlineStr">
-        <is>
-          <t>슈랙</t>
-        </is>
-      </c>
-      <c r="I47" t="inlineStr">
-        <is>
-          <t>스마트스토어</t>
-        </is>
-      </c>
-      <c r="J47" t="inlineStr">
-        <is>
-          <t>슈랙</t>
-        </is>
-      </c>
-      <c r="K47" t="inlineStr">
         <is>
           <t>행거</t>
         </is>
